--- a/uploads/classified.xlsx
+++ b/uploads/classified.xlsx
@@ -527,567 +527,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="B46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>49</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
+      <c r="B51">
         <v>0</v>
       </c>
     </row>

--- a/uploads/classified.xlsx
+++ b/uploads/classified.xlsx
@@ -22,154 +22,173 @@
     <t>off</t>
   </si>
   <si>
-    <t>מנית משהו שישמור עליך בזמן החקירה של מימד החמישי שלך !</t>
-  </si>
-  <si>
-    <t>אדם רע ומכפישן לדעתי. הקנאה שורפת. יש לך ללמוד מנתניהו</t>
-  </si>
-  <si>
-    <t>לך לעזה אצ ויאיסמן זבל נדבק לזבל כמוך בדיוק נוולה סרוחה לכי לקיבינימט חתיכת זבל עזה עזאזל מחקה לך</t>
-  </si>
-  <si>
-    <t>לדעתי זאת הסיבה במדינה וחתירה נגד ממשלת ישראל.. יש לעצור את יאיר לפיד ואהוד ברק ולכלוא אותם מייד.</t>
-  </si>
-  <si>
-    <t>לך כבר מיאתנו אתה הבאתה חורבן על המדינה. מהיום הראשון אתה רק שם מקלות בגלגלים ומכשיל את תיפקוד הממשלה. בזיון</t>
-  </si>
-  <si>
-    <t>גנץ רק נזקים אתה גורם.אנא די.לא מתאים לפוליטיקה</t>
-  </si>
-  <si>
-    <t>לך לישון אולי אתה עייף</t>
-  </si>
-  <si>
-    <t>לך לעזאזל נימאסת</t>
-  </si>
-  <si>
-    <t>אתה שומר על תיק מימד החמישי זה בסדר</t>
-  </si>
-  <si>
-    <t>שפוט של מנדבליט תופס אותך בביצים</t>
-  </si>
-  <si>
-    <t>חבל על הזמן שלך</t>
-  </si>
-  <si>
-    <t>הטינופת של המדינה</t>
-  </si>
-  <si>
-    <t>לא נורא עוד קצת וגם אתה תיגמר</t>
-  </si>
-  <si>
-    <t>גנץ מה קורה עם המימד החמישי50.000.000 אתה ואלשךלבחור רק ביבי</t>
-  </si>
-  <si>
-    <t>לך תעשה חמוצים</t>
-  </si>
-  <si>
-    <t>הזוי קצת בושה לא יזיק לאף אחד</t>
-  </si>
-  <si>
-    <t>דחליל</t>
-  </si>
-  <si>
-    <t>בפנים שלנו אתה הורס את המדינה</t>
-  </si>
-  <si>
-    <t>נוכל בגלל שאתה ואלשיח שקועים עד למעל לצאוור בחרה שלכם שומרים על החונטה הסיציליאנית בורא עולם ישלם לכם במכאובים וייסורים אמן אחד אחד</t>
-  </si>
-  <si>
-    <t>ראו מו שמדבר , הלץ הזה , אני ואני ואני ...לא יעזור לך רק ביבי 🤮</t>
-  </si>
-  <si>
-    <t>אידיוט!מגן על המושחתים!אתה גיבור שם שלא יחקרו את המימד החמישי</t>
-  </si>
-  <si>
-    <t>בני גץ.. עם ישראל חווה את 10 המכות... אתה המכה האחד עשרה...</t>
-  </si>
-  <si>
-    <t>שקרן צבוע נוכל</t>
-  </si>
-  <si>
-    <t>ביבי לא אמר בפרהסיה מילה אחת רעה על גנץ ביבי רמה אחרת ..</t>
-  </si>
-  <si>
-    <t>וגם חתם על הארכת אי חקירת המימד החמישי.כל יום שומעים ממך רק הסתה והשמצות ,אולי שנה דיסקט או תפרוש.</t>
-  </si>
-  <si>
-    <t>. אידיוט אמרנו מטומטם סגרנו</t>
-  </si>
-  <si>
-    <t>כסיל</t>
-  </si>
-  <si>
-    <t>לך לך תישן תראה לאי הגנת לתחתית של הבור</t>
-  </si>
-  <si>
-    <t>נוכל בן נוכל . חוצפן</t>
-  </si>
-  <si>
-    <t>במעט הזמן שנותר לך,,אתה הורס את המדינה...את הבטחון של חיילי גולני הפקרת השדה הקרב ועכשיו הגעתה להרוס את המדינה ,,תתבייש לך,,, חלאה</t>
-  </si>
-  <si>
-    <t>נו מה את מי תמנה את מי שמנדבליט הדיח כממלא מקום בגלל שהתחיל ליבדוק את הקשר שלך עים אלשייך במימד החמישי וה4 מיליון שהעלמתה והחלאה מנדבליט מגוננן עליך</t>
-  </si>
-  <si>
-    <t>כל מה שבניתה במשך עשרות שנים הרסתה כל חלקה בישראל לך לך לך לך</t>
-  </si>
-  <si>
-    <t>עלוב חלאה אתה מתפוגג מיום ליום אתה מתאדה כמו שהיה צפוי אתה אפס ומקווה שלא תעבור את אחוז החסימה גנב ושקרן מהמימד החמישי</t>
-  </si>
-  <si>
-    <t>לך</t>
-  </si>
-  <si>
-    <t>אתה איש עלוב ושקרן</t>
-  </si>
-  <si>
-    <t>תזכר כאיש הכי מיותר בפוליטיקה הישראלית.אתה הפוליטקאי הכי יקר מאז קום המדינה7 מיליון שיפוץ ביית6 מיליון רכביםבתקופה של כמה חודשים ואת ביבי חוקרים על שמפנייה.</t>
-  </si>
-  <si>
-    <t>גנץ, תפסיק לשמוע לחורשי רעתך. נתניהו בע"ה יבחר והוא ימנה מערכת משפט נקייה וללא נשוא פנים.הבחירה שלך כדי להגן עליך מפרשת המימד החמישי</t>
-  </si>
-  <si>
-    <t>סבתא שלך שקועה במשפט שלה אתה שקרן</t>
-  </si>
-  <si>
-    <t>גנץ, אני מתבייש בך, לא רמה, משתמש בשפת הרחוב. מצטייר כלא אמין, מערכת המשפט המסואבת לא תועיל לך, ניפטר ממך כפוליטיקאי, בעוד שבועיים.</t>
-  </si>
-  <si>
-    <t>החונק מנדלבליט יוצא לך חזק מהגרון</t>
-  </si>
-  <si>
-    <t>מתי היה אמין עם כרמטכ'K</t>
-  </si>
-  <si>
-    <t>לא היה אמין כל הדרך זהו מטיבעו גנץ זהו ניגמר לך לא שכחנו צוק איתן והמיימד החמישי</t>
-  </si>
-  <si>
-    <t>ומה עם המימד החמישי??,?,</t>
-  </si>
-  <si>
-    <t>עלוב נפש רק יודע להרוס ולאלבנות , אתה אפס .</t>
-  </si>
-  <si>
-    <t>טיפש מטופש</t>
-  </si>
-  <si>
-    <t>תשנה דיסק</t>
-  </si>
-  <si>
-    <t>מה אתה אומר זבל</t>
-  </si>
-  <si>
-    <t>הבן זונה מבלפור - ימכור את אימא שלו ואישתו לזנות וישכנע את עדת הסוגדים הדבילים שלו, שהן הסחורה הכי טובה והכי טריה בשוק הבשר - רק בשביל להמשיך לגור בבלפור ולנצל את הדביליות של סוגדיו כדי לדפוק אותם ולחרבן עליהם והאהבלים האלה יאכלו את המכות שהוא מפיל עליהם ויבקשו עוד - מזוכיסטים !</t>
-  </si>
-  <si>
-    <t>@yalisperber זונה שמנה</t>
-  </si>
-  <si>
-    <t>RT @NirTsadok: הולך עם אשתי, בהריון מתקדם, לרופאה. כשמגיעה המעלית מבקשים מהאשה המבוגרת שמאחורינו לעלות לבד לקומה השמינית ולא לחלוק איתה את…</t>
+    <t>מצער לראות שגם בנימין נתניהו מפנה עורף לישראל השנייה, מתחנף לאליטות ולממשלה החדשה, חובר לציונות הדתית היהירה וכותב… https://t.co/HNsMW7ptQm</t>
+  </si>
+  <si>
+    <t>הנאום של שרון אסמן כשסיים את כהונתו כמחט בנימין, לפני שנתיים. https://t.co/hlHQbSuxY8</t>
+  </si>
+  <si>
+    <t>כשהשר עמר ברלב כותב הבוקר בהקשר של אביתר שכל מאחז לא חוקי יש לפנות, זה אחרי או לפני שעיין בהסכם הקואליציוני עם רע"מ… https://t.co/xnP462w2VY</t>
+  </si>
+  <si>
+    <t>וכאז כן היום, מתעסקים ב"הסתה" יותר מאשר במהות https://t.co/3OqXXp6Fao</t>
+  </si>
+  <si>
+    <t>40 שנה לבחירות 1981. סקר מינה צמח בידיעות אחרונות https://t.co/jRjpt5j4dH</t>
+  </si>
+  <si>
+    <t>הליכוד מתווכח, הקואליציה מפוצלת, וכבר עכשיו די ברור: אי אישורו של החוק יהיה מהלומה לממשלה, ומהלומה לאופוזיציה https://t.co/4VW8aiGCbv</t>
+  </si>
+  <si>
+    <t>ההחלטה של הרצוג למנות את נאור יחיא לתפקיד דובר הנשיא חשובה מכפי שנראית:
+1) גם מול ביקורת ממחנהו הוא לא פסל מועמד ע… https://t.co/DFi80nAUKP</t>
+  </si>
+  <si>
+    <t>RT @chaimlevinson: מאמר חזק מאוד על הפרסום השובניסטי בדה מרקר אתמול
+https://t.co/UOQVYzu8LU</t>
+  </si>
+  <si>
+    <t>ספר מדכדך ומעודד, אופטימי ופסימי, לא מתאבל על העבר אבל צופה פני עתיד. קריאה חשובה לשבוע הספר https://t.co/Z7v8By5DWX</t>
+  </si>
+  <si>
+    <t>בכל תולדות העולם הדמוקרטי לא יזמה ממשלה נבחרת חקיקה שמטרתה לאסור על אדם אחד להתמודד לכנסת.
+הטור המלא היום ב… https://t.co/Gx5BR9jlNJ</t>
+  </si>
+  <si>
+    <t>הערה אחרונה בעניין ארץ נהדרת: 
+אני מציע לכולם לברר אצל מולי שגב שאלה אחת שממנה בחר להתעלם: כמה פעמים פעל, סימס וטיל… https://t.co/mJjF7MyH9C</t>
+  </si>
+  <si>
+    <t>אפשר להיות אידיאולוג, זה אחלה ואני מעריך את זה. אפשר גם לא להביע דעות וגם זה סבבה. אבל לנסות להנדס את תודעת הישראלי… https://t.co/v6Yb2FD1KQ</t>
+  </si>
+  <si>
+    <t>המציג הינו מזרחי ועל כן יוצג כקוף. https://t.co/C8cykvSFWW</t>
+  </si>
+  <si>
+    <t>מצד שני, הם אבירי התנועה לאיכות השלטון אז אני לוקח את כל המילים שלי בחזרה.</t>
+  </si>
+  <si>
+    <t>על הגזענות של ארץ נהדרת נגד המזרחיים עוד נדבר יום אחד. אבל בקצרה: עוד לא נולד המזרחי שייצא טוב בארץ נהדרת. זה המעוז… https://t.co/xR9v2zMvUy</t>
+  </si>
+  <si>
+    <t>RT @yosi0998: עמית סגל נכנס בארץ נהדרת.
+חייבים לשמוע! https://t.co/xXRcNdkYsI</t>
+  </si>
+  <si>
+    <t>במשך 7 שנים (!), ראשי ארץ נהדרת לא מפסיקים לסמס לבכירי קשת בכל פעם שאני אומר משהו ימני על המסך . הם מעולם לא תקפו א… https://t.co/ZT6TrXXg9p</t>
+  </si>
+  <si>
+    <t>ועוד יסופר על המסרונים האובססיביים של בכירי ארץ נהדרת להנהלת ערוץ 12 בכל פעם שלמרבה הזוועה נשמע בחדשות קשת משהו ימנ… https://t.co/KsGAV84YUo</t>
+  </si>
+  <si>
+    <t>בעצם, גם באמריקה מקדמים את פניו של מנהיג טרי בדגלים ובלונים אז במובן הזה - הכל שגרתי.</t>
+  </si>
+  <si>
+    <t>RT @guyzo: שירות תזכורות https://t.co/gE3Z8sLeed</t>
+  </si>
+  <si>
+    <t>וברצינות - 
+כמו שאמר שלמה ארצי ״הנביאים כבר מתו ואין מי שינבא לי״. על מה נשענה הטעות? חשבתי שיהיו בימינה לפחות שני… https://t.co/AMZ9LJtndB</t>
+  </si>
+  <si>
+    <t>אל תשכחו ממי שמעתם על זה לראשונה https://t.co/zRkGi6OzlH</t>
+  </si>
+  <si>
+    <t>RT @Nir0z: שלפתי מהארכיון תזכורת - איך הכל התחיל: נפתלי בנט נבחר לתפקיד יו"ר הבית היהודי באותו היום שבו זכה ברק אובמה בקדנציה שנייה בבית הל…</t>
+  </si>
+  <si>
+    <t>RT @Nir0z: השידור הוא מה-6 בנובמבר 2012.
+באולפן נמצא @usegal, ובטלפון מדווח @amit_segal.
+סגל טען אז ש"נתניהו מוטרד מהמהלך הזה" ואף קרא לז…</t>
+  </si>
+  <si>
+    <t>התקשורת הישראלית מקפידה על איזון: מהערב תפתח עידן של 12 שנות מתקפות
+על האופוזיציה</t>
+  </si>
+  <si>
+    <t>ארבע הערות על הממשלה החדשה
+https://t.co/DevX8MoKij</t>
+  </si>
+  <si>
+    <t>רה"מ המיועד נפתלי בנט הציע לפרשנית והעיתונאית @shimritmeir את תפקיד היועצת המדינית שלו. אם תיאות, אישה ראשונה בתפקי… https://t.co/SvtkM00TtB</t>
+  </si>
+  <si>
+    <t>מיו״ר האופוזיציה של רבין ליו״ר האופוזיציה של בנט: נתניהו חוזר לתפקיד שבו החל הכל
+https://t.co/LmD0QbWGk6 https://t.co/Do5Ixx36oe</t>
+  </si>
+  <si>
+    <t>בשבוע הבא יגלו כולם ש״רק לא ביבי״ זו לא מדיניות.
+הטור המלא הבוקר ב @YediotAhronot https://t.co/ZfcfbepteK</t>
+  </si>
+  <si>
+    <t>@SuleimanMas1 תנחומיי סולימאן</t>
+  </si>
+  <si>
+    <t>בשבוע שבו גם בית המשפט דוחה את שקר ״שוד הגז״ ודוחה בקשה לתביעה ייצוגית, אני ממליץ לכולם לקרוא את הספר של שר האנרגיה… https://t.co/n8Ggw30EZ1</t>
+  </si>
+  <si>
+    <t>RT @LeviYonit: מהבור של חיל האוויר ועד שמי סוריה, מהמלחמה הסמויה בצפון ועד לימי הקרב בדרום. שנה עם מפקד חיל האוויר והטייסים שהוא שולח ברחבי…</t>
+  </si>
+  <si>
+    <t>RT @avishaigrinzaig: תומא סלימאן שלהבה יחד עם החמאס את ההמונים בעכו והשתתפה בעצמה בהפגנה שם והתעמתה עם שוטרים במחאה שהפכה לפוגרום קטלני על…</t>
+  </si>
+  <si>
+    <t>ההסכמים המלאים לעיונכם:
+https://t.co/L9UC1MOtUQ</t>
+  </si>
+  <si>
+    <t>הממשלה המיועדת מבקשת למנוע מיושב-ראש האופוזיציה המיועד להתמודד לכנסת. לא לממשלה, לכנסת. 
+חסר תקדים.</t>
+  </si>
+  <si>
+    <t>הדיווח המלא ובהמשך הערב גם כל ההסכמים, בטלגרם: 
+https://t.co/CSDeMQOhPh</t>
+  </si>
+  <si>
+    <t>והחוק השני - מאפשר לפצל את סיעת הליכוד בתנאים נוחים בהרבה, 4 ח״כים במקום עשרה.
+הקואליציה העתידית מבקשת שבמקום שהליכ… https://t.co/O6sGSbpFQU</t>
+  </si>
+  <si>
+    <t>והכי חשוב: שני חוקים שנועדו להגבלת האופוזיציה -
+הראשון: ההסכמים כוללים חוק שמוציא לצינון כפוי של 4 שנים מי שכיהן כ… https://t.co/SiTAKPlolt</t>
+  </si>
+  <si>
+    <t>אחד עובר לטבעונות, השני יעביר את זה בצהרי היום https://t.co/Fp7K9ZpMlU</t>
+  </si>
+  <si>
+    <t>סער יהיה סגן ראש הממשלה. הוא מקבל את פיצול היועמש ואת התכנית למניעת השתלטות על שטחי סי - אבל זה על הקרח כי השמאל יכ… https://t.co/bLYGa2J9Xl</t>
+  </si>
+  <si>
+    <t>העבודה מקבלת אגף חדש ל״התחדשות יהודית״ במשרד התפוצות, שם קוד לתקציבים וקשר לרפורמים בארה״ב.
+וגנץ הופך מראש הממשלה… https://t.co/Ubtg7siFF0</t>
+  </si>
+  <si>
+    <t>ההסכם של לפיד ובנט להצביע נגד שינוי בסטטוס קוו תקף גם לסעיפים הראשונים בהסכם עם ישראל ביתנו: ברית הזוגיות וביטול חו… https://t.co/kScdH1VBzD</t>
+  </si>
+  <si>
+    <t>ההסכם עם מרצ כולל לראשונה בתולדות המדינה קידום נישואים גאים ותחבורה ציבורית בשבת. ובכל זאת זה לא עומד לקרות. מדוע?… https://t.co/xP6K1uOaMl</t>
+  </si>
+  <si>
+    <t>ההסכם עם רעמ: 
+בנט ולפיד התחייבו לפנות ליועמש כדי לבטל את כל הקנסות והעיצומים על בנייה בלתי חוקית. הקפאת אכיפה לכמע… https://t.co/YQoMZCa6MC</t>
+  </si>
+  <si>
+    <t>גם אם החרדים קיוו להיכנס מתישהו לממשלה - הם יכולים לשכוח מזה. לפי ההסכם: ליברמן, מיכאלי והורוביץ מחזיקים בזכות וטו על צירוף מפלגות נוספות.</t>
+  </si>
+  <si>
+    <t>הסעיף החשוב ביותר - קיום הממשלה. בנט נאזק פה אל הקואליציה בחקיקה שקובעת שאם הממשלה תיפול באי אמון, הוא לא יוכל לכהן… https://t.co/EcehrwB5F3</t>
+  </si>
+  <si>
+    <t>המסגרת הכללית היא אחת הממשלות הגדולות בתולדות המדינה - גם מבחינת בעלי התפקידים, וגם בהוספת עוד 6 ח״כים שייכנסו בנור… https://t.co/rZjijqvHcz</t>
+  </si>
+  <si>
+    <t>זה הסוד הפוליטי הכי שמור במדינה: בנט ולפיד קיוו לשמור את ההסכמים הקואליציוניים קרוב קרוב לחזה עד יממה לפני ההשבעה.… https://t.co/A2o0iFFG3Q</t>
+  </si>
+  <si>
+    <t>יותר מ-20 שנה אחרי, סיפורם של החיילים במוצבים. שווה האזנה https://t.co/7CaMk5Gmg7</t>
+  </si>
+  <si>
+    <t>🤔 https://t.co/t6iJ7Q95LX</t>
   </si>
 </sst>
 </file>
@@ -554,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -562,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -602,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -618,7 +637,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -634,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -674,7 +693,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -690,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -698,7 +717,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -706,7 +725,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -722,7 +741,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -730,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -746,7 +765,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -770,7 +789,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -778,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -802,7 +821,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -818,7 +837,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -842,7 +861,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -890,7 +909,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -898,7 +917,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -914,7 +933,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -922,7 +941,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -930,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2">

--- a/uploads/classified.xlsx
+++ b/uploads/classified.xlsx
@@ -22,173 +22,169 @@
     <t>off</t>
   </si>
   <si>
-    <t>מצער לראות שגם בנימין נתניהו מפנה עורף לישראל השנייה, מתחנף לאליטות ולממשלה החדשה, חובר לציונות הדתית היהירה וכותב… https://t.co/HNsMW7ptQm</t>
-  </si>
-  <si>
-    <t>הנאום של שרון אסמן כשסיים את כהונתו כמחט בנימין, לפני שנתיים. https://t.co/hlHQbSuxY8</t>
-  </si>
-  <si>
-    <t>כשהשר עמר ברלב כותב הבוקר בהקשר של אביתר שכל מאחז לא חוקי יש לפנות, זה אחרי או לפני שעיין בהסכם הקואליציוני עם רע"מ… https://t.co/xnP462w2VY</t>
-  </si>
-  <si>
-    <t>וכאז כן היום, מתעסקים ב"הסתה" יותר מאשר במהות https://t.co/3OqXXp6Fao</t>
-  </si>
-  <si>
-    <t>40 שנה לבחירות 1981. סקר מינה צמח בידיעות אחרונות https://t.co/jRjpt5j4dH</t>
-  </si>
-  <si>
-    <t>הליכוד מתווכח, הקואליציה מפוצלת, וכבר עכשיו די ברור: אי אישורו של החוק יהיה מהלומה לממשלה, ומהלומה לאופוזיציה https://t.co/4VW8aiGCbv</t>
-  </si>
-  <si>
-    <t>ההחלטה של הרצוג למנות את נאור יחיא לתפקיד דובר הנשיא חשובה מכפי שנראית:
-1) גם מול ביקורת ממחנהו הוא לא פסל מועמד ע… https://t.co/DFi80nAUKP</t>
-  </si>
-  <si>
-    <t>RT @chaimlevinson: מאמר חזק מאוד על הפרסום השובניסטי בדה מרקר אתמול
-https://t.co/UOQVYzu8LU</t>
-  </si>
-  <si>
-    <t>ספר מדכדך ומעודד, אופטימי ופסימי, לא מתאבל על העבר אבל צופה פני עתיד. קריאה חשובה לשבוע הספר https://t.co/Z7v8By5DWX</t>
-  </si>
-  <si>
-    <t>בכל תולדות העולם הדמוקרטי לא יזמה ממשלה נבחרת חקיקה שמטרתה לאסור על אדם אחד להתמודד לכנסת.
-הטור המלא היום ב… https://t.co/Gx5BR9jlNJ</t>
-  </si>
-  <si>
-    <t>הערה אחרונה בעניין ארץ נהדרת: 
-אני מציע לכולם לברר אצל מולי שגב שאלה אחת שממנה בחר להתעלם: כמה פעמים פעל, סימס וטיל… https://t.co/mJjF7MyH9C</t>
-  </si>
-  <si>
-    <t>אפשר להיות אידיאולוג, זה אחלה ואני מעריך את זה. אפשר גם לא להביע דעות וגם זה סבבה. אבל לנסות להנדס את תודעת הישראלי… https://t.co/v6Yb2FD1KQ</t>
-  </si>
-  <si>
-    <t>המציג הינו מזרחי ועל כן יוצג כקוף. https://t.co/C8cykvSFWW</t>
-  </si>
-  <si>
-    <t>מצד שני, הם אבירי התנועה לאיכות השלטון אז אני לוקח את כל המילים שלי בחזרה.</t>
-  </si>
-  <si>
-    <t>על הגזענות של ארץ נהדרת נגד המזרחיים עוד נדבר יום אחד. אבל בקצרה: עוד לא נולד המזרחי שייצא טוב בארץ נהדרת. זה המעוז… https://t.co/xR9v2zMvUy</t>
-  </si>
-  <si>
-    <t>RT @yosi0998: עמית סגל נכנס בארץ נהדרת.
-חייבים לשמוע! https://t.co/xXRcNdkYsI</t>
-  </si>
-  <si>
-    <t>במשך 7 שנים (!), ראשי ארץ נהדרת לא מפסיקים לסמס לבכירי קשת בכל פעם שאני אומר משהו ימני על המסך . הם מעולם לא תקפו א… https://t.co/ZT6TrXXg9p</t>
-  </si>
-  <si>
-    <t>ועוד יסופר על המסרונים האובססיביים של בכירי ארץ נהדרת להנהלת ערוץ 12 בכל פעם שלמרבה הזוועה נשמע בחדשות קשת משהו ימנ… https://t.co/KsGAV84YUo</t>
-  </si>
-  <si>
-    <t>בעצם, גם באמריקה מקדמים את פניו של מנהיג טרי בדגלים ובלונים אז במובן הזה - הכל שגרתי.</t>
-  </si>
-  <si>
-    <t>RT @guyzo: שירות תזכורות https://t.co/gE3Z8sLeed</t>
-  </si>
-  <si>
-    <t>וברצינות - 
-כמו שאמר שלמה ארצי ״הנביאים כבר מתו ואין מי שינבא לי״. על מה נשענה הטעות? חשבתי שיהיו בימינה לפחות שני… https://t.co/AMZ9LJtndB</t>
-  </si>
-  <si>
-    <t>אל תשכחו ממי שמעתם על זה לראשונה https://t.co/zRkGi6OzlH</t>
-  </si>
-  <si>
-    <t>RT @Nir0z: שלפתי מהארכיון תזכורת - איך הכל התחיל: נפתלי בנט נבחר לתפקיד יו"ר הבית היהודי באותו היום שבו זכה ברק אובמה בקדנציה שנייה בבית הל…</t>
-  </si>
-  <si>
-    <t>RT @Nir0z: השידור הוא מה-6 בנובמבר 2012.
-באולפן נמצא @usegal, ובטלפון מדווח @amit_segal.
-סגל טען אז ש"נתניהו מוטרד מהמהלך הזה" ואף קרא לז…</t>
-  </si>
-  <si>
-    <t>התקשורת הישראלית מקפידה על איזון: מהערב תפתח עידן של 12 שנות מתקפות
-על האופוזיציה</t>
-  </si>
-  <si>
-    <t>ארבע הערות על הממשלה החדשה
-https://t.co/DevX8MoKij</t>
-  </si>
-  <si>
-    <t>רה"מ המיועד נפתלי בנט הציע לפרשנית והעיתונאית @shimritmeir את תפקיד היועצת המדינית שלו. אם תיאות, אישה ראשונה בתפקי… https://t.co/SvtkM00TtB</t>
-  </si>
-  <si>
-    <t>מיו״ר האופוזיציה של רבין ליו״ר האופוזיציה של בנט: נתניהו חוזר לתפקיד שבו החל הכל
-https://t.co/LmD0QbWGk6 https://t.co/Do5Ixx36oe</t>
-  </si>
-  <si>
-    <t>בשבוע הבא יגלו כולם ש״רק לא ביבי״ זו לא מדיניות.
-הטור המלא הבוקר ב @YediotAhronot https://t.co/ZfcfbepteK</t>
-  </si>
-  <si>
-    <t>@SuleimanMas1 תנחומיי סולימאן</t>
-  </si>
-  <si>
-    <t>בשבוע שבו גם בית המשפט דוחה את שקר ״שוד הגז״ ודוחה בקשה לתביעה ייצוגית, אני ממליץ לכולם לקרוא את הספר של שר האנרגיה… https://t.co/n8Ggw30EZ1</t>
-  </si>
-  <si>
-    <t>RT @LeviYonit: מהבור של חיל האוויר ועד שמי סוריה, מהמלחמה הסמויה בצפון ועד לימי הקרב בדרום. שנה עם מפקד חיל האוויר והטייסים שהוא שולח ברחבי…</t>
-  </si>
-  <si>
-    <t>RT @avishaigrinzaig: תומא סלימאן שלהבה יחד עם החמאס את ההמונים בעכו והשתתפה בעצמה בהפגנה שם והתעמתה עם שוטרים במחאה שהפכה לפוגרום קטלני על…</t>
-  </si>
-  <si>
-    <t>ההסכמים המלאים לעיונכם:
-https://t.co/L9UC1MOtUQ</t>
-  </si>
-  <si>
-    <t>הממשלה המיועדת מבקשת למנוע מיושב-ראש האופוזיציה המיועד להתמודד לכנסת. לא לממשלה, לכנסת. 
-חסר תקדים.</t>
-  </si>
-  <si>
-    <t>הדיווח המלא ובהמשך הערב גם כל ההסכמים, בטלגרם: 
-https://t.co/CSDeMQOhPh</t>
-  </si>
-  <si>
-    <t>והחוק השני - מאפשר לפצל את סיעת הליכוד בתנאים נוחים בהרבה, 4 ח״כים במקום עשרה.
-הקואליציה העתידית מבקשת שבמקום שהליכ… https://t.co/O6sGSbpFQU</t>
-  </si>
-  <si>
-    <t>והכי חשוב: שני חוקים שנועדו להגבלת האופוזיציה -
-הראשון: ההסכמים כוללים חוק שמוציא לצינון כפוי של 4 שנים מי שכיהן כ… https://t.co/SiTAKPlolt</t>
-  </si>
-  <si>
-    <t>אחד עובר לטבעונות, השני יעביר את זה בצהרי היום https://t.co/Fp7K9ZpMlU</t>
-  </si>
-  <si>
-    <t>סער יהיה סגן ראש הממשלה. הוא מקבל את פיצול היועמש ואת התכנית למניעת השתלטות על שטחי סי - אבל זה על הקרח כי השמאל יכ… https://t.co/bLYGa2J9Xl</t>
-  </si>
-  <si>
-    <t>העבודה מקבלת אגף חדש ל״התחדשות יהודית״ במשרד התפוצות, שם קוד לתקציבים וקשר לרפורמים בארה״ב.
-וגנץ הופך מראש הממשלה… https://t.co/Ubtg7siFF0</t>
-  </si>
-  <si>
-    <t>ההסכם של לפיד ובנט להצביע נגד שינוי בסטטוס קוו תקף גם לסעיפים הראשונים בהסכם עם ישראל ביתנו: ברית הזוגיות וביטול חו… https://t.co/kScdH1VBzD</t>
-  </si>
-  <si>
-    <t>ההסכם עם מרצ כולל לראשונה בתולדות המדינה קידום נישואים גאים ותחבורה ציבורית בשבת. ובכל זאת זה לא עומד לקרות. מדוע?… https://t.co/xP6K1uOaMl</t>
-  </si>
-  <si>
-    <t>ההסכם עם רעמ: 
-בנט ולפיד התחייבו לפנות ליועמש כדי לבטל את כל הקנסות והעיצומים על בנייה בלתי חוקית. הקפאת אכיפה לכמע… https://t.co/YQoMZCa6MC</t>
-  </si>
-  <si>
-    <t>גם אם החרדים קיוו להיכנס מתישהו לממשלה - הם יכולים לשכוח מזה. לפי ההסכם: ליברמן, מיכאלי והורוביץ מחזיקים בזכות וטו על צירוף מפלגות נוספות.</t>
-  </si>
-  <si>
-    <t>הסעיף החשוב ביותר - קיום הממשלה. בנט נאזק פה אל הקואליציה בחקיקה שקובעת שאם הממשלה תיפול באי אמון, הוא לא יוכל לכהן… https://t.co/EcehrwB5F3</t>
-  </si>
-  <si>
-    <t>המסגרת הכללית היא אחת הממשלות הגדולות בתולדות המדינה - גם מבחינת בעלי התפקידים, וגם בהוספת עוד 6 ח״כים שייכנסו בנור… https://t.co/rZjijqvHcz</t>
-  </si>
-  <si>
-    <t>זה הסוד הפוליטי הכי שמור במדינה: בנט ולפיד קיוו לשמור את ההסכמים הקואליציוניים קרוב קרוב לחזה עד יממה לפני ההשבעה.… https://t.co/A2o0iFFG3Q</t>
-  </si>
-  <si>
-    <t>יותר מ-20 שנה אחרי, סיפורם של החיילים במוצבים. שווה האזנה https://t.co/7CaMk5Gmg7</t>
-  </si>
-  <si>
-    <t>🤔 https://t.co/t6iJ7Q95LX</t>
+    <t>Arabsat operates a growing fleet of owned satellites
+at the 20°E, 26°E, 30.5°E, 39°E and 44.5°E locations making yo… https://t.co/toh1yzqd0S</t>
+  </si>
+  <si>
+    <t>Arabsat is the only satellite operator in the region offering the full spectrum of broadcast and telecommunications… https://t.co/QWvdgZe4yz</t>
+  </si>
+  <si>
+    <t>#EidMubarak https://t.co/yOsIHQzGC6</t>
+  </si>
+  <si>
+    <t>قناة النيل الأزرق 2 الان حصريا على عرب سات .المزيد من التفاصيل https://t.co/m1959k348H https://t.co/DiTCkaLMzg</t>
+  </si>
+  <si>
+    <t>قناة النيل الأزرق 2 الان حصريا على عرب سات وخالية من الإعلانات.المزيد من التفاصيل https://t.co/m1959k348H https://t.co/fl32fYXCAQ</t>
+  </si>
+  <si>
+    <t>قناة الوطنية التعليمية الان على عرب سات!لمزيد من التفاصيل
+https://t.co/3pziHi00YM https://t.co/bbQ2JcaGT7</t>
+  </si>
+  <si>
+    <t>هو شهر الصيام، شهر العبادة، شهر القيم و التسامح!
+هو شهر كل ما نريد أن نكون في هذه الحياة!
+إنه رمضان، أعاده الله علي… https://t.co/CxbXKhiQ4R</t>
+  </si>
+  <si>
+    <t>La chaîne éducative Al Watiniya est maintenant disponible sur Arabsat! plus de détails https://t.co/D2ezRrfs4r https://t.co/NmFTxANqRK</t>
+  </si>
+  <si>
+    <t>قناة الوطنية التعليمية الان على عرب سات!لمزيد من التفاصيل https://t.co/4wmpCJw5L5 https://t.co/5CIeZpFNfW</t>
+  </si>
+  <si>
+    <t>#ramadankareem https://t.co/drt0JQNLkD</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: If you want more details about the MENA Satellite TV Penetration study or want to see the slide deck, get in touch at a…</t>
+  </si>
+  <si>
+    <t>Thank You for attending #Arabsat Al Madar Facts &amp;amp; Figures Satellite TV Penetration Study for 2020. For feedback &amp;amp; q… https://t.co/TPhWyPYuxH</t>
+  </si>
+  <si>
+    <t>#ARABSAT team is sharing key information about Al Madar-Facts &amp;amp; Figures Satellite TV Penetration Study for 2020. Jo… https://t.co/gi7yD7huB9</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: Top languages in which people watch TV in #MENA - Arabic, English, Farsi, Turkish, French - MENA Satellite TV Penetrati…</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: To ensure greater accuracy, @arabsat actually launched a pilot project to see how people would respond and tweaked the…</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: We as @Arabsat have experienced huge growth in #saudiArabia and #Lebanon and seen some growth in the surrounding countr…</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: .@Arabsat position has increased by 30% since the last measurement we did 5 years ago. This has been the overall growth…</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: This was the biggest and most comprehensive study we have conducted in the last 5 years by @Arabsat because we wanted t…</t>
+  </si>
+  <si>
+    <t>RT @BroadcastProME: FUN FACT: Al Madar Facts and Figures from @Arabsat coming up in just three minutes. A fun fact. What is Al Madar? It me…</t>
+  </si>
+  <si>
+    <t>Exclusive free webinar “Almadar Facts &amp;amp; Figures – Satellite TV Penetration Study 2020” will share interesting key f… https://t.co/0PmPRKaLAA</t>
+  </si>
+  <si>
+    <t>Exclusive free webinar “Almadar Facts &amp;amp; Figures – Satellite TV Penetration Study 2020” will share interesting key f… https://t.co/OXgZ1t6inb</t>
+  </si>
+  <si>
+    <t>Join our webinar Al Madar - Satellite TV Penetration Study 2020 for MENA region on the 07th April 2021 12:00 Riyadh… https://t.co/j1aO8kZCJh</t>
+  </si>
+  <si>
+    <t>تهانينا الحارة لفريق @HopeMarsMission على مهمتهم التي كللت بالنجاح. هذه لحظة فخر واعتزاز لدولة الامارات والوطن العر… https://t.co/8VaH6HXCKg</t>
+  </si>
+  <si>
+    <t>Hearties Congratulations to @HopeMarsMission team for the successful mission. A proud moment for the entire #UAE na… https://t.co/LvIMJPkxdP</t>
+  </si>
+  <si>
+    <t>RT @saudispace: يُصادف اليوم ذكرى إطلاق أوّل قمر صناعي عربي بإدارة المؤسسة العربية للاتصالات الفضائية "عرب سات" @Arabsat، حيث ساهم في تقديم…</t>
+  </si>
+  <si>
+    <t>Don't miss your favorite programs on Galaxy 19! Tune your receiver now with the new frequency 12146 MHz to receive… https://t.co/rdUcS7s1mT</t>
+  </si>
+  <si>
+    <t>لا تفوت برامجك المفضلة على Galaxy 19
+قم بضبط جهاز الاستقبال الخاص بك الآن على التردد الجديد 12146 ميجا هرتز لاستقبا… https://t.co/UEEFwcfRCN</t>
+  </si>
+  <si>
+    <t>قم بضبط جهاز الاستقبال الخاص بك الآن على التردد الجديد 12146 ميجا هرتز لاستقبال Oman TV.للمزيد اضغط على الرابط… https://t.co/xhtx1grZRi</t>
+  </si>
+  <si>
+    <t>Tune your receiver now with the new frequency 12146 MHz to receive #OmanTv. For more details visit… https://t.co/FwQw3bhd7n</t>
+  </si>
+  <si>
+    <t>تتشرف عرب سات بنقل مباراه الهلال السوداني واشانتي كوتوكو في دوري ابطال افريقيا في تمام الساعه ٤ بتوقيت الرياض حصريا… https://t.co/2lOkWqID9Z</t>
+  </si>
+  <si>
+    <t>Welcoming 2021
+#NewYear #NewYear2021 https://t.co/4CvWutNmsL</t>
+  </si>
+  <si>
+    <t>مع استقبال العام 2021
+#NewYear #NewYear2021 https://t.co/sLwDZwvkpD</t>
+  </si>
+  <si>
+    <t>لا تفوت برامجك باللغة العربية من القنوات ادناه! قم بضبط جهاز الاستقبال الآن على التردد الجديد 4080 ميجاهرتز. سيتم ا… https://t.co/oBXcf7AJ65</t>
+  </si>
+  <si>
+    <t>Don’t miss out on the Arabic channels listed below, update your receiver to the new frequency 4080 MHz. The old fre… https://t.co/AocfUb5rNB</t>
+  </si>
+  <si>
+    <t>لا تفوت برامجك باللغة العربية من القنوات ادناه! قم بضبط جهاز الاستقبال الآن على التردد الجديد 4080 ميجاهرتز. سيتم ا… https://t.co/IN2uBch74b</t>
+  </si>
+  <si>
+    <t>Don’t miss out on the Arabic channels listed below, update your receiver to the new frequency 4080 MHz. The old fre… https://t.co/0uzbIECxCv</t>
+  </si>
+  <si>
+    <t>We are live in #Cabsatvirtual. Click here to meet our experts https://t.co/oW3vJgDGe4
+@CABSATofficial https://t.co/K8imUE5It2</t>
+  </si>
+  <si>
+    <t>Meet Us Virtually At #CABSAT 2020. To book a meeting click here https://t.co/UpQtrLqhtX
+@CABSATofficial https://t.co/S7ICixtPJH</t>
+  </si>
+  <si>
+    <t>Arabsat participates in #CABSAT virtual 2020 from 9 to 10 November 2020. To visit our online exhibitor profile clic… https://t.co/RMLpfWYQhy</t>
+  </si>
+  <si>
+    <t>Our new application is up. Download it today on both iOS and Android and benefit from various exclusive services.
+i… https://t.co/vVMIvm3fbc</t>
+  </si>
+  <si>
+    <t>Arabsat Congratulates the World Food Program for being awarded the 2020 Nobel Peace Prize. For more details visit https://t.co/IDvxXeIBhh</t>
+  </si>
+  <si>
+    <t>RT @gvf4satellite: What are the advantages regional satellite operators have over global satellite operators? Do they need to follow the sa…</t>
+  </si>
+  <si>
+    <t>قناة Télé Maroc الآن حصريا على عرب سات عبر التردد 12303Mhz.عدّل جهاز الإستقبال لديك ولا تفوت فرصة متابعة برامجك الم… https://t.co/zTnHuud4MQ</t>
+  </si>
+  <si>
+    <t>Télé Maroc arrive en exclusivité sur Arabsat. Réglez vos récepteurs sur la fréquence 12303MHz et ne ratez aucun pro… https://t.co/Yj58WM94b6</t>
+  </si>
+  <si>
+    <t>شاهد برامجك التلفزيونية المفضلة على قناة تيلي ماروك حصريا على عرب سات.
+للمزيد https://t.co/HXe0POnCAO
+@telemarocweb… https://t.co/BOM7YbBREv</t>
+  </si>
+  <si>
+    <t>Regardez vos programmes préférés de Télé Maroc en exclusivité sur Arabsat. Cliquez ici pour plus de détails… https://t.co/P8FdggScdn</t>
+  </si>
+  <si>
+    <t>ديرتي هي فخري وعزتي
+دام عزك يا وطن
+#اليوم_الوطني #همة_حتى_القمه https://t.co/WbFUcjJZoQ</t>
+  </si>
+  <si>
+    <t>RT @riyadiyatv: حرصاً من ادارة القنوات الرياضية لتمكين الجماهير من مشاهدة كافة المباريات ببث مباشر وبالتعاون مع عرب سات فسيتم إستمرار بث ال…</t>
+  </si>
+  <si>
+    <t>RT @iEN_tv: #تعلم_عن_بعد عبر #قنوات_عين دروس..
+بث #مباشر لدروس يوم الأحد من الأسبوع الثاني للمرحلتين المتوسطة والثانوية، للتعليم العام وال…</t>
+  </si>
+  <si>
+    <t>RT @riyadiyatv: #عبدالرحمن_الحميدي يوجه الشكر للطواقم الفنية التي عملت على بث ونقل 8 مباريات في توقيت واحد.. ولـ @Arabsat على التعاون المثم…</t>
   </si>
 </sst>
 </file>
@@ -589,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -597,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -605,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -621,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -629,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -693,7 +689,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -709,7 +705,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -741,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -749,7 +745,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -757,7 +753,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -773,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -781,7 +777,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -813,7 +809,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -821,7 +817,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -837,7 +833,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -901,7 +897,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -917,7 +913,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -941,7 +937,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -949,7 +945,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -957,7 +953,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
